--- a/output/damage/TWN_osm_fl_rcp8p5_damage_0.xlsx
+++ b/output/damage/TWN_osm_fl_rcp8p5_damage_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,12 +469,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F5_1</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,79 +485,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>51074.55997181784</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>24428.80910003742</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99628.71357890031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F5_2</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>minor_line</t>
+          <t>line</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53303.94288341198</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25511.70616665661</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>103934.6836415076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F5_3</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cable</t>
+          <t>line</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55740.01297575584</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>27338.7587359145</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106979.7712569374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F5_1</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,79 +572,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>57588.91267622586</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28725.43351126702</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>109290.8958825249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F5_2</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>minor_line</t>
+          <t>line</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>60904.5455532676</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>31212.15816904833</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>113435.4369788271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>F5_3</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cable</t>
+          <t>line</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63129.09447159805</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>32880.56985779617</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>116216.1231267402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.2</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F5_1</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,79 +659,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>65119.09723821651</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>34359.19076183859</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>118739.422568437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F5_2</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>minor_line</t>
+          <t>line</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>68769.34301199336</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>36655.26573464513</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>124441.0271775554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.2</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>F5_3</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cable</t>
+          <t>line</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>73046.09317592604</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>38563.74205655833</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133136.9756244475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F5_1</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -726,553 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77975.5859677371</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>40556.86095738541</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>F5_1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>F5_1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>F5_1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>F5_1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>F5_1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>F5_1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>F5_2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>minor_line</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>F5_3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>cable</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
+        <v>143693.0228333003</v>
       </c>
     </row>
   </sheetData>
